--- a/data/georgia_census/adjara/batumi/healthcare_staff.xlsx
+++ b/data/georgia_census/adjara/batumi/healthcare_staff.xlsx
@@ -1273,13 +1273,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231F30FD-81B9-42F9-899B-845E7AB5CF97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DA0E29D-9F46-4883-B587-E3C45DC55708}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C138F933-DBE9-4AA9-BF5C-F19EEC0946CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D551C2D-5D85-4061-8838-78F7F7970D8F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B689C498-CA90-4AB8-9755-32A4F19827F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9D1AAB-3676-4235-81CF-024787C18083}"/>
 </file>